--- a/main/bin/Debug/ArquivosDados/ProfissionalCadastroHorarios.xlsx
+++ b/main/bin/Debug/ArquivosDados/ProfissionalCadastroHorarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0BF7B3D4-B10E-4CCD-9B84-66C68C5806EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{31742C5C-DBC4-4EE6-9A82-7DD2054E8D25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Tipo</t>
   </si>
@@ -35,6 +35,24 @@
   </si>
   <si>
     <t>Turno</t>
+  </si>
+  <si>
+    <t>SUCESSO</t>
+  </si>
+  <si>
+    <t>Recorrente</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Tarde</t>
+  </si>
+  <si>
+    <t>Nao</t>
+  </si>
+  <si>
+    <t>Todo</t>
   </si>
   <si>
     <t>FALHA</t>
@@ -392,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,9 +421,10 @@
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,10 +432,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -424,14 +446,92 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="teste@teste.com" xr:uid="{275CC76D-529F-4E41-A24E-9F8903C66CD4}"/>
+    <hyperlink ref="B3" r:id="rId2" display="teste@teste.com" xr:uid="{169F2118-B95C-4DC9-B74A-F4A945D09978}"/>
+    <hyperlink ref="B4" r:id="rId3" display="teste@teste.com" xr:uid="{3BFEA72F-66AF-4D0A-B454-26F1C08EC269}"/>
+    <hyperlink ref="B5" r:id="rId4" display="teste@teste.com" xr:uid="{481F8E8A-3AA9-433B-B30F-069E3BFA668D}"/>
+    <hyperlink ref="B6" r:id="rId5" display="teste@teste.com" xr:uid="{73DEFAFC-FA66-4DBB-9CE9-CE48962C78E4}"/>
+    <hyperlink ref="B7" r:id="rId6" display="teste@teste.com" xr:uid="{45096E9E-6AF5-489B-82AC-C4DA16F587C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/main/bin/Debug/ArquivosDados/ProfissionalCadastroHorarios.xlsx
+++ b/main/bin/Debug/ArquivosDados/ProfissionalCadastroHorarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{31742C5C-DBC4-4EE6-9A82-7DD2054E8D25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70B0915D-7222-4EEE-BBB7-29151E4026E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/main/bin/Debug/ArquivosDados/ProfissionalCadastroHorarios.xlsx
+++ b/main/bin/Debug/ArquivosDados/ProfissionalCadastroHorarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70B0915D-7222-4EEE-BBB7-29151E4026E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0BF7B3D4-B10E-4CCD-9B84-66C68C5806EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Tipo</t>
   </si>
@@ -35,24 +35,6 @@
   </si>
   <si>
     <t>Turno</t>
-  </si>
-  <si>
-    <t>SUCESSO</t>
-  </si>
-  <si>
-    <t>Recorrente</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Tarde</t>
-  </si>
-  <si>
-    <t>Nao</t>
-  </si>
-  <si>
-    <t>Todo</t>
   </si>
   <si>
     <t>FALHA</t>
@@ -410,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,10 +403,9 @@
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,13 +413,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -446,92 +424,14 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="teste@teste.com" xr:uid="{275CC76D-529F-4E41-A24E-9F8903C66CD4}"/>
-    <hyperlink ref="B3" r:id="rId2" display="teste@teste.com" xr:uid="{169F2118-B95C-4DC9-B74A-F4A945D09978}"/>
-    <hyperlink ref="B4" r:id="rId3" display="teste@teste.com" xr:uid="{3BFEA72F-66AF-4D0A-B454-26F1C08EC269}"/>
-    <hyperlink ref="B5" r:id="rId4" display="teste@teste.com" xr:uid="{481F8E8A-3AA9-433B-B30F-069E3BFA668D}"/>
-    <hyperlink ref="B6" r:id="rId5" display="teste@teste.com" xr:uid="{73DEFAFC-FA66-4DBB-9CE9-CE48962C78E4}"/>
-    <hyperlink ref="B7" r:id="rId6" display="teste@teste.com" xr:uid="{45096E9E-6AF5-489B-82AC-C4DA16F587C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/main/bin/Debug/ArquivosDados/ProfissionalCadastroHorarios.xlsx
+++ b/main/bin/Debug/ArquivosDados/ProfissionalCadastroHorarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0BF7B3D4-B10E-4CCD-9B84-66C68C5806EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D97667F1-F8A3-4DC5-8CA7-3657AB3C4FDE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <t>Turno</t>
   </si>
   <si>
-    <t>FALHA</t>
+    <t>SUCESSO</t>
   </si>
 </sst>
 </file>

--- a/main/bin/Debug/ArquivosDados/ProfissionalCadastroHorarios.xlsx
+++ b/main/bin/Debug/ArquivosDados/ProfissionalCadastroHorarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D97667F1-F8A3-4DC5-8CA7-3657AB3C4FDE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70B0915D-7222-4EEE-BBB7-29151E4026E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Tipo</t>
   </si>
@@ -38,6 +38,24 @@
   </si>
   <si>
     <t>SUCESSO</t>
+  </si>
+  <si>
+    <t>Recorrente</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Tarde</t>
+  </si>
+  <si>
+    <t>Nao</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>FALHA</t>
   </si>
 </sst>
 </file>
@@ -392,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,9 +421,10 @@
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,10 +432,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -424,14 +446,92 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="teste@teste.com" xr:uid="{275CC76D-529F-4E41-A24E-9F8903C66CD4}"/>
+    <hyperlink ref="B3" r:id="rId2" display="teste@teste.com" xr:uid="{169F2118-B95C-4DC9-B74A-F4A945D09978}"/>
+    <hyperlink ref="B4" r:id="rId3" display="teste@teste.com" xr:uid="{3BFEA72F-66AF-4D0A-B454-26F1C08EC269}"/>
+    <hyperlink ref="B5" r:id="rId4" display="teste@teste.com" xr:uid="{481F8E8A-3AA9-433B-B30F-069E3BFA668D}"/>
+    <hyperlink ref="B6" r:id="rId5" display="teste@teste.com" xr:uid="{73DEFAFC-FA66-4DBB-9CE9-CE48962C78E4}"/>
+    <hyperlink ref="B7" r:id="rId6" display="teste@teste.com" xr:uid="{45096E9E-6AF5-489B-82AC-C4DA16F587C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>